--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Vikings/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C2C2E8C0CB190D01B1533337F5EA45774133C824" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A167294F-80FF-4FE4-8862-5DCBDB767380}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -98,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,14 +156,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,27 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,24 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,16 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -527,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -539,35 +487,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -579,9 +527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -599,9 +547,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -610,18 +558,18 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -639,9 +587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -665,16 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,18 +643,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -723,263 +669,289 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>69</v>
-      </c>
-      <c r="D4">
-        <v>49</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>K.Cousins</t>
+  </si>
+  <si>
+    <t>D.Cook</t>
   </si>
   <si>
     <t>A.Mattison</t>
@@ -444,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -495,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -515,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -555,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -575,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,12 +601,32 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -625,22 +648,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -651,19 +674,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -677,22 +700,22 @@
         <v>7</v>
       </c>
       <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -700,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -726,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -752,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>66</v>
@@ -778,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -804,19 +827,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -830,13 +853,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -856,13 +879,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -882,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -908,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -934,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>2</v>

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -498,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -538,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -674,10 +674,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -752,22 +752,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>23</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -830,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -882,19 +882,19 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -934,22 +934,22 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -518,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -637,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -723,19 +723,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E6">
+        <v>49</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
       <c r="G6">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,25 +827,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
       <c r="D8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -853,25 +853,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -879,25 +879,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -905,25 +905,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -931,25 +931,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -957,24 +957,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Vikings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_27A649C194194C55A9923C37F5EA4577C1B420CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68EEFF9-A032-4E08-B20A-0C03E5E64F50}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -95,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +165,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +303,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,7 +560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -530,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -610,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -636,14 +686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -692,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -718,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -744,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -770,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -796,168 +848,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>68</v>
-      </c>
-      <c r="D7">
-        <v>53</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -966,41 +1018,15 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Vikings/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_27A649C194194C55A9923C37F5EA4577C1B420CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68EEFF9-A032-4E08-B20A-0C03E5E64F50}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +33,9 @@
   </si>
   <si>
     <t>K.Cousins</t>
+  </si>
+  <si>
+    <t>S.Mannion</t>
   </si>
   <si>
     <t>D.Cook</t>
@@ -101,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -540,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -548,19 +501,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -568,19 +521,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,19 +541,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -608,19 +561,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -628,19 +581,19 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -648,19 +601,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -671,12 +624,32 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -686,50 +659,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -744,18 +715,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -770,12 +741,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -796,18 +767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -822,21 +793,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -848,64 +819,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -926,24 +897,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -952,64 +923,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>2</v>

--- a/Base/Teams/Vikings/Players Data.xlsx
+++ b/Base/Teams/Vikings/Players Data.xlsx
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>43</v>
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -775,10 +775,10 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>14</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -853,16 +853,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>39</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -905,10 +905,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -957,16 +957,16 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
